--- a/Project1.xlsx
+++ b/Project1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="378">
   <si>
     <r>
       <t xml:space="preserve">     Mr Med.In                 </t>
@@ -1145,6 +1145,117 @@
   </si>
   <si>
     <t>FILE UPLOAD</t>
+  </si>
+  <si>
+    <t>TEST ID</t>
+  </si>
+  <si>
+    <t>Verify that signup page should work properly</t>
+  </si>
+  <si>
+    <t>Signup  page  should shown on the page</t>
+  </si>
+  <si>
+    <t>Signup page not working properly</t>
+  </si>
+  <si>
+    <t>MMI_SSP_61</t>
+  </si>
+  <si>
+    <t>Verify that the page should displays the query results correctly</t>
+  </si>
+  <si>
+    <t>Check search bar</t>
+  </si>
+  <si>
+    <t>The page should displays the query results correctly</t>
+  </si>
+  <si>
+    <t>The page does not displays the query results correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Verify that the home page should be more attractive and more satisfactory</t>
+  </si>
+  <si>
+    <t>Cheak  throught out the page</t>
+  </si>
+  <si>
+    <t>Home page not that attractive</t>
+  </si>
+  <si>
+    <t>Verify that the page should be user friendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  The page should be user friendly</t>
+  </si>
+  <si>
+    <t>Check login page</t>
+  </si>
+  <si>
+    <t>when verify mobile number in login page its not work properly</t>
+  </si>
+  <si>
+    <t>Check signup page</t>
+  </si>
+  <si>
+    <t>when verify mobile number in signup page its not work properly</t>
+  </si>
+  <si>
+    <t>when verify mobile number otp not get  properly in signup page</t>
+  </si>
+  <si>
+    <t>must be no delay when verify mobile number in signup page</t>
+  </si>
+  <si>
+    <t>There is a delay when verify mobile number in signup page</t>
+  </si>
+  <si>
+    <t>otp gets several times</t>
+  </si>
+  <si>
+    <t>MMI_SSP_62</t>
+  </si>
+  <si>
+    <t>MMI_SSP_63</t>
+  </si>
+  <si>
+    <t>MMI_SSP_64</t>
+  </si>
+  <si>
+    <t>MMI_SSP_65</t>
+  </si>
+  <si>
+    <t>MMI_SSP_66</t>
+  </si>
+  <si>
+    <t>MMI_SSP_67</t>
+  </si>
+  <si>
+    <t>MMI_SSP_68</t>
+  </si>
+  <si>
+    <t>MMI_SSP_69</t>
+  </si>
+  <si>
+    <t>MMI_SSP_70</t>
+  </si>
+  <si>
+    <t>MMI_SSP_71</t>
+  </si>
+  <si>
+    <t>cheak login page</t>
+  </si>
+  <si>
+    <t>Cheak signup page and login page</t>
+  </si>
+  <si>
+    <t>Should be a huge diffrence between login page and signup page</t>
+  </si>
+  <si>
+    <t>There is no diffrence between them</t>
   </si>
 </sst>
 </file>
@@ -1312,13 +1423,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1403,9 +1511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,12 +1667,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="42111360"/>
-        <c:axId val="42112896"/>
+        <c:axId val="219446656"/>
+        <c:axId val="219448448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="42111360"/>
+        <c:axId val="219446656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1576,7 +1681,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42112896"/>
+        <c:crossAx val="219448448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1584,7 +1689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42112896"/>
+        <c:axId val="219448448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,7 +1700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42111360"/>
+        <c:crossAx val="219446656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,13 +1735,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>238919</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1024337</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>561976</xdr:rowOff>
@@ -1674,13 +1779,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>588857</xdr:rowOff>
@@ -1718,13 +1823,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>186963</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>51885</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>971551</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>485774</xdr:rowOff>
@@ -1762,13 +1867,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1162050</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>579331</xdr:rowOff>
@@ -1806,13 +1911,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1171575</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>684106</xdr:rowOff>
@@ -1850,13 +1955,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1057275</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>569806</xdr:rowOff>
@@ -2217,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:H168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2235,51 +2340,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2313,7 +2418,7 @@
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2329,426 +2434,426 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="48.75" customHeight="1">
+    <row r="6" spans="1:7" ht="66.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
+      <c r="B6" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" customHeight="1">
+      <c r="E6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="48.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
+      <c r="B7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="E7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="84.75" customHeight="1">
+    <row r="8" spans="1:7" ht="48.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
+      <c r="B8" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="192" customHeight="1">
+      <c r="E8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>94</v>
+      <c r="B9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="72" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="84.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>97</v>
+      <c r="B10" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="63" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="192" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>102</v>
+      <c r="B11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>104</v>
+      <c r="E11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" customHeight="1">
+    <row r="12" spans="1:7" ht="72" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>106</v>
+      <c r="B12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>108</v>
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" customHeight="1">
+    <row r="13" spans="1:7" ht="63" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>216</v>
+      <c r="B13" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>218</v>
+      <c r="E13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="68.25" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="90" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>110</v>
+      <c r="B14" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>112</v>
+      <c r="E14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="168.75" customHeight="1">
+    <row r="15" spans="1:7" ht="45" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>113</v>
+      <c r="B15" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="72.75" customHeight="1">
+      <c r="E15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="68.25" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>117</v>
+      <c r="B16" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="E16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="67.5" customHeight="1">
+    <row r="17" spans="1:8" ht="168.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>122</v>
+      <c r="B17" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="E17" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" customHeight="1">
+    <row r="18" spans="1:8" ht="72.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>128</v>
+      <c r="B18" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="73.5" customHeight="1">
+      <c r="E18" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="67.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>127</v>
+      <c r="B19" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>133</v>
+      <c r="E19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="73.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>134</v>
+      <c r="B20" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>137</v>
+      <c r="E20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="73.5" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>138</v>
+      <c r="B21" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>140</v>
+      <c r="E21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="54.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="73.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>147</v>
+      <c r="B22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>143</v>
+      <c r="E22" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="54.75" customHeight="1">
+    <row r="23" spans="1:8" ht="60.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>200</v>
+      <c r="B23" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>203</v>
+      <c r="E23" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="59.25" customHeight="1">
+    <row r="24" spans="1:8" ht="54.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>144</v>
+      <c r="B24" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>147</v>
@@ -2756,68 +2861,68 @@
       <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>145</v>
+      <c r="E24" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="59.25" customHeight="1">
+    <row r="25" spans="1:8" ht="54.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>222</v>
+      <c r="B25" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>224</v>
+      <c r="E25" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="59.25" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>219</v>
+      <c r="B26" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>221</v>
+      <c r="E26" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="45" customHeight="1">
+    <row r="27" spans="1:8" ht="59.25" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>225</v>
+      <c r="B27" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>90</v>
@@ -2825,459 +2930,462 @@
       <c r="D27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>227</v>
+      <c r="E27" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="59.25" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="30">
       <c r="A28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>151</v>
+      <c r="B28" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>150</v>
+      <c r="E28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="59.25" customHeight="1">
+    <row r="29" spans="1:8" ht="45" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>228</v>
+      <c r="B29" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>230</v>
+      <c r="E29" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="59.25" customHeight="1">
+    <row r="30" spans="1:8" ht="59.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>232</v>
+      <c r="B30" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>233</v>
+      <c r="E30" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="59.25" customHeight="1">
+    <row r="31" spans="1:8" ht="59.25" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>324</v>
+      <c r="B31" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>325</v>
+        <v>127</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>328</v>
+      <c r="E31" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="19.5" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="58.5" customHeight="1">
+      <c r="H31" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="59.25" customHeight="1">
+      <c r="A32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="59.25" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>152</v>
+        <v>39</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>154</v>
+      <c r="E33" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="70.5" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="59.25" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>157</v>
+        <v>40</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>159</v>
+      <c r="E34" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="69.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1">
+    <row r="35" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A35" s="36"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="58.5" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>157</v>
+      <c r="B36" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>164</v>
+      <c r="E36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="46.5" customHeight="1">
+    <row r="37" spans="1:7" ht="70.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>167</v>
+      <c r="E37" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="61.5" customHeight="1">
+    <row r="38" spans="1:7" ht="70.5" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>157</v>
+      <c r="B38" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>171</v>
+      <c r="E38" s="18" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>357</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="57" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="70.5" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>157</v>
+      <c r="B39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>174</v>
+      <c r="E39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>363</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="63.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="69.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>177</v>
+      <c r="E40" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="81" customHeight="1">
+    <row r="41" spans="1:7" ht="66" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>180</v>
+      <c r="E41" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57" customHeight="1">
+    <row r="42" spans="1:7" ht="46.5" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>183</v>
+      <c r="E42" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="66.75" customHeight="1">
+    <row r="43" spans="1:7" ht="61.5" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>192</v>
+      <c r="B43" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>185</v>
+      <c r="E43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="66.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="57" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>197</v>
+      <c r="B44" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>199</v>
+      <c r="E44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="63.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>192</v>
+      <c r="B45" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>189</v>
+      <c r="E45" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="66.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="81" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>209</v>
+      <c r="B46" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>211</v>
+      <c r="E46" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="66.75" customHeight="1">
+    <row r="47" spans="1:7" ht="57" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>209</v>
+      <c r="B47" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>214</v>
+      <c r="E47" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>183</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>125</v>
@@ -3287,452 +3395,656 @@
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>316</v>
+      <c r="B48" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>320</v>
+      <c r="E48" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A49" s="38"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-    </row>
-    <row r="50" spans="1:7" ht="53.25" customHeight="1">
+    <row r="49" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="66.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>110</v>
+        <v>55</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>193</v>
+      <c r="E50" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="72" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="66.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>195</v>
+        <v>56</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>159</v>
+      <c r="E51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="61.5" customHeight="1">
+    <row r="52" spans="1:7" ht="66.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>195</v>
+        <v>57</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>162</v>
+      <c r="E52" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="48.75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="66.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>195</v>
+        <v>58</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>164</v>
+      <c r="E53" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="71.25" customHeight="1">
+    <row r="54" spans="1:7" ht="66.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>195</v>
+        <v>59</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>374</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>167</v>
+      <c r="E54" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>168</v>
+        <v>320</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A55" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="75" customHeight="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="1:7" ht="53.25" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>195</v>
+      <c r="B56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>174</v>
+      <c r="E56" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="68.25" customHeight="1">
+    <row r="57" spans="1:7" ht="72" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>177</v>
+      <c r="E57" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="63.75" customHeight="1">
+    <row r="58" spans="1:7" ht="61.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="C58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>180</v>
+      <c r="E58" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>162</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="66" customHeight="1">
+    <row r="59" spans="1:7" ht="48.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E59" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>183</v>
+      <c r="E59" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="45" customHeight="1">
+    <row r="60" spans="1:7" ht="71.25" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>185</v>
+      <c r="E60" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="70.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="63.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="9" t="s">
+      <c r="B61" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>189</v>
+      <c r="E61" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="54.75" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>205</v>
+      <c r="B62" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>207</v>
+      <c r="E62" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="63" customHeight="1">
+    <row r="63" spans="1:7" ht="68.25" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>316</v>
+      <c r="B63" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>318</v>
+      <c r="E63" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="61.5" customHeight="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="63.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>323</v>
+      <c r="E64" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="57" customHeight="1">
+    <row r="65" spans="1:7" ht="63.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="66" customHeight="1">
+      <c r="A66" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="70.5" customHeight="1">
+      <c r="A68" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="54.75" customHeight="1">
+      <c r="A69" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="63" customHeight="1">
+      <c r="A70" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A71" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="57" customHeight="1">
+      <c r="A72" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E65" s="9" t="s">
+      <c r="D72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="F72" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="61.5" customHeight="1">
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="C69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="C70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="C71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="C72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="C73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="C74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="C75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="C76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
+    <row r="73" spans="1:7" ht="61.5" customHeight="1">
+      <c r="A73" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="54" customHeight="1">
+      <c r="A74" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="56.25" customHeight="1">
+      <c r="A75" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A76" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="C77" s="1"/>
@@ -3752,73 +4064,80 @@
     <row r="80" spans="1:7">
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7">
       <c r="C81" s="1"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="1:7">
       <c r="C82" s="1"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="1:7">
       <c r="C83" s="1"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="1:7">
       <c r="C84" s="1"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7">
       <c r="C85" s="1"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="1:7">
       <c r="C86" s="1"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="1:7">
       <c r="C87" s="1"/>
       <c r="F87" s="1"/>
     </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="1"/>
+    <row r="88" spans="1:7">
       <c r="C88" s="1"/>
       <c r="F88" s="1"/>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="1"/>
+    <row r="89" spans="1:7">
       <c r="C89" s="1"/>
       <c r="F89" s="1"/>
     </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:6">
+    <row r="90" spans="1:7">
+      <c r="C90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="C91" s="1"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="C92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="C93" s="1"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="C94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="C95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1"/>
@@ -3828,7 +4147,7 @@
       <c r="A98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" ht="409.6">
       <c r="A99" s="1"/>
       <c r="D99" s="1"/>
     </row>
@@ -4065,16 +4384,44 @@
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4">
+      <c r="A158" s="1"/>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4">
+      <c r="A159" s="1"/>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
+      <c r="A160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="4:4">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
       <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="D168" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4084,498 +4431,568 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="57.75" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="25" t="s">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>242</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="50.25" customHeight="1">
+    <row r="3" spans="1:23" ht="50.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="42" customHeight="1">
+    <row r="4" spans="1:23" ht="42" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="42" customHeight="1">
+    <row r="5" spans="1:23" ht="42" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="G5" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="51" customHeight="1">
+    <row r="6" spans="1:23" ht="51" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="52.5" customHeight="1">
+    <row r="7" spans="1:23" ht="52.5" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="54.75" customHeight="1">
+    <row r="8" spans="1:23" ht="54.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="51.75" customHeight="1">
+    <row r="9" spans="1:23" ht="51.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="G9" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="45.75" customHeight="1">
+    <row r="10" spans="1:23" ht="45.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="I10" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="47.25" customHeight="1">
+    <row r="11" spans="1:23" ht="47.25" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="60" customHeight="1">
+    <row r="12" spans="1:23" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="G12" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="50.25" customHeight="1">
+    <row r="13" spans="1:23" ht="50.25" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="58.5" customHeight="1">
+    <row r="14" spans="1:23" ht="58.5" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="G14" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="I14" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="58.5" customHeight="1">
+    <row r="15" spans="1:23" ht="58.5" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="E15" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="G15" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="I15" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="48" customHeight="1">
+    <row r="16" spans="1:23" ht="48" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="G16" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="54.75" customHeight="1">
+    <row r="17" spans="1:9" ht="54.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="E17" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="G17" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="55.5" customHeight="1">
+    <row r="18" spans="1:9" ht="55.5" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="G18" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="46.5" customHeight="1">
+    <row r="19" spans="1:9" ht="46.5" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="E19" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="G19" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="48" customHeight="1">
+    <row r="20" spans="1:9" ht="48" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>290</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="54" customHeight="1">
+    <row r="21" spans="1:9" ht="54" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="G21" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="57" customHeight="1">
+    <row r="22" spans="1:9" ht="57" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="E22" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="I22" s="30" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="1"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="B23" s="1"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4600,13 +5017,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>333</v>
       </c>
       <c r="B2" t="s">
@@ -4614,7 +5031,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>335</v>
       </c>
       <c r="B3">
@@ -4622,7 +5039,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>336</v>
       </c>
       <c r="B4">
@@ -4630,7 +5047,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>337</v>
       </c>
       <c r="B5">
@@ -4638,7 +5055,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>340</v>
       </c>
       <c r="B6">
@@ -4646,7 +5063,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>338</v>
       </c>
       <c r="B7">
@@ -4654,7 +5071,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>339</v>
       </c>
       <c r="B8">
